--- a/config_11.3/activity_034_xyxfl_config.xlsx
+++ b/config_11.3/activity_034_xyxfl_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础配置" sheetId="6" r:id="rId1"/>
@@ -205,88 +205,88 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>xyxfl_bg_1</t>
+    <t>2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果大战中连胜2局</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敲敲乐普通模式中砸中1次金猪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敲敲乐财神模式中连续砸出2次财神</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神消消乐使用1万及以上档次，出现3次天女散花</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水浒消消乐使用1万及以上档次，累计召唤3次英雄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐使用1万及以上档次，出现1次幸运时刻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中种出1次金苹果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Zjd",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Zjd",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_EliminateCS",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_EliminateSH",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Eliminate",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_ZPG",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_ZPG",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_034_xyxyx</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>苹果大战中连胜2局</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>敲敲乐普通模式中砸中1次金猪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>敲敲乐财神模式中连续砸出2次财神</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神消消乐使用1万及以上档次，出现3次天女散花</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>水浒消消乐使用1万及以上档次，累计召唤3次英雄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>水果消消乐使用1万及以上档次，出现1次幸运时刻</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在苹果大战中种出1次金苹果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Zjd",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Zjd",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_EliminateCS",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_EliminateSH",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Eliminate",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_ZPG",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_ZPG",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -467,6 +467,9 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -746,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -776,12 +779,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>34</v>
+      <c r="B2" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>32</v>
@@ -800,7 +803,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -878,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -969,10 +972,10 @@
         <v>1000072</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="15">
         <v>1</v>
@@ -985,7 +988,7 @@
       </c>
       <c r="K2" s="17"/>
       <c r="L2" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N2" s="17"/>
       <c r="O2" s="20"/>
@@ -1001,10 +1004,10 @@
         <v>1000073</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="15">
         <v>1</v>
@@ -1020,7 +1023,7 @@
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
       <c r="L3" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N3" s="17"/>
       <c r="O3" s="21"/>
@@ -1035,10 +1038,10 @@
         <v>1000074</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="15">
         <v>1</v>
@@ -1052,7 +1055,7 @@
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
       <c r="L4" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N4" s="17"/>
       <c r="O4" s="21"/>
@@ -1067,10 +1070,10 @@
         <v>1000075</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="15">
         <v>1</v>
@@ -1084,7 +1087,7 @@
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
       <c r="L5" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N5" s="17"/>
       <c r="O5" s="21"/>
@@ -1099,10 +1102,10 @@
         <v>1000076</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="15">
         <v>1</v>
@@ -1116,7 +1119,7 @@
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="L6" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N6" s="17"/>
       <c r="O6" s="21"/>
@@ -1131,10 +1134,10 @@
         <v>1000077</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="15">
         <v>1</v>
@@ -1148,7 +1151,7 @@
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="L7" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N7" s="17"/>
       <c r="O7" s="21"/>
@@ -1164,10 +1167,10 @@
         <v>1000078</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="15">
         <v>1</v>
@@ -1179,7 +1182,7 @@
         <v>33</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">

--- a/config_11.3/activity_034_xyxfl_config.xlsx
+++ b/config_11.3/activity_034_xyxfl_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础配置" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>index|索引</t>
   </si>
@@ -257,36 +257,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"game_Zjd",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Zjd",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_EliminateCS",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_EliminateSH",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Eliminate",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_ZPG",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_ZPG",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>act_034_xyxyx</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -749,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -784,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>32</v>
@@ -881,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -988,7 +964,7 @@
       </c>
       <c r="K2" s="17"/>
       <c r="L2" s="18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N2" s="17"/>
       <c r="O2" s="20"/>
@@ -1023,7 +999,7 @@
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
       <c r="L3" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N3" s="17"/>
       <c r="O3" s="21"/>
@@ -1087,7 +1063,7 @@
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
       <c r="L5" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N5" s="17"/>
       <c r="O5" s="21"/>
@@ -1119,7 +1095,7 @@
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="L6" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N6" s="17"/>
       <c r="O6" s="21"/>
@@ -1151,7 +1127,7 @@
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="L7" s="18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N7" s="17"/>
       <c r="O7" s="21"/>
@@ -1182,7 +1158,7 @@
         <v>33</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
